--- a/user.xlsx
+++ b/user.xlsx
@@ -17,13 +17,13 @@
     <t>jose</t>
   </si>
   <si>
-    <t>lopez</t>
+    <t>martinez</t>
   </si>
   <si>
-    <t>lopezwe</t>
+    <t>joma</t>
   </si>
   <si>
-    <t>7890</t>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
